--- a/Kardex/MIRANDA AVILA KARINA.xlsx
+++ b/Kardex/MIRANDA AVILA KARINA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rudyl\Descargas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0b13018831d25970/Escritorio/Proyecto Terminal/Recomendaci-n-de-cargas-acad-micas-basado-en-optimizaci-n-multiobjetivo/Kardex/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E73C2EE1-6EB0-418E-9842-31BE504A35B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{E73C2EE1-6EB0-418E-9842-31BE504A35B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5A49C48-89B0-4997-8C4B-C37844CBDA47}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -1116,7 +1116,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1208,6 +1208,12 @@
       <name val="Arial MT"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1267,150 +1273,153 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="3" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="3" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="3" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="2" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="3" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="3" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="12"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="3" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="12"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="12"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1752,17 +1761,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="50.88671875" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" customWidth="1"/>
-    <col min="4" max="4" width="12.5546875" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" customWidth="1"/>
+    <col min="2" max="2" width="50.83203125" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="39" customHeight="1">
@@ -1775,12 +1784,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="35.4">
+    <row r="3" spans="1:7" ht="48">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" ht="25.5">
       <c r="A4" s="4"/>
       <c r="B4" s="5" t="s">
         <v>3</v>
@@ -1794,7 +1803,7 @@
       <c r="F4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="44"/>
+      <c r="G4" s="46"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="8" t="s">
@@ -1815,7 +1824,7 @@
       <c r="F5" s="11">
         <v>0</v>
       </c>
-      <c r="G5" s="44"/>
+      <c r="G5" s="46"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="12" t="s">
@@ -1836,7 +1845,7 @@
       <c r="F6" s="15">
         <v>0</v>
       </c>
-      <c r="G6" s="44"/>
+      <c r="G6" s="46"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="16" t="s">
@@ -1857,7 +1866,7 @@
       <c r="F7" s="15">
         <v>0</v>
       </c>
-      <c r="G7" s="44"/>
+      <c r="G7" s="46"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="17" t="s">
@@ -1878,7 +1887,7 @@
       <c r="F8" s="15">
         <v>6</v>
       </c>
-      <c r="G8" s="44"/>
+      <c r="G8" s="46"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="16" t="s">
@@ -1899,7 +1908,7 @@
       <c r="F9" s="15">
         <v>0</v>
       </c>
-      <c r="G9" s="44"/>
+      <c r="G9" s="46"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="16" t="s">
@@ -1920,7 +1929,7 @@
       <c r="F10" s="15">
         <v>0</v>
       </c>
-      <c r="G10" s="44"/>
+      <c r="G10" s="46"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="16" t="s">
@@ -1941,7 +1950,7 @@
       <c r="F11" s="15">
         <v>0</v>
       </c>
-      <c r="G11" s="44"/>
+      <c r="G11" s="46"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="18" t="s">
@@ -1962,7 +1971,7 @@
       <c r="F12" s="21">
         <v>0</v>
       </c>
-      <c r="G12" s="45"/>
+      <c r="G12" s="47"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="22"/>
@@ -1996,7 +2005,7 @@
       <c r="G14" s="26"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="48" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="13" t="s">
@@ -2464,7 +2473,7 @@
       <c r="G38" s="22"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="47" t="s">
+      <c r="A39" s="45" t="s">
         <v>105</v>
       </c>
       <c r="B39" s="13" t="s">
@@ -2901,7 +2910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="102">
+    <row r="63" spans="1:6" ht="78.75">
       <c r="A63" s="25" t="s">
         <v>69</v>
       </c>
@@ -2912,11 +2921,11 @@
         <v>202</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="20.399999999999999">
+    <row r="64" spans="1:6" ht="33.75">
       <c r="A64" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="B64" s="46" t="s">
+      <c r="B64" s="44" t="s">
         <v>103</v>
       </c>
       <c r="C64">
